--- a/3º sem - Engenharia de Requisitos/17. Análise dos Eventos para cada Cenário/17. Análise dos Eventos - Vender produtos.xlsx
+++ b/3º sem - Engenharia de Requisitos/17. Análise dos Eventos para cada Cenário/17. Análise dos Eventos - Vender produtos.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1700134\Desktop\Especificacao\3º sem - Engenharia de Requisitos\17. Análise dos Eventos para cada Cenário\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70B05F4-08DD-4162-8EB3-20E2DD318B80}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Capacidades</t>
   </si>
@@ -84,15 +90,6 @@
     <t>Setor de vendas realiza troca de produtos</t>
   </si>
   <si>
-    <t>Cliente solicita devolução de produtos</t>
-  </si>
-  <si>
-    <t>Setor de vendas realiza devolução de produtos</t>
-  </si>
-  <si>
-    <t>Setor financeiro trata pagamento em aberto</t>
-  </si>
-  <si>
     <t>Setor de vendas envia produtos</t>
   </si>
   <si>
@@ -120,13 +117,16 @@
     <t>x(4)</t>
   </si>
   <si>
-    <t>x(8)</t>
+    <t>Cliente devolve produtos</t>
+  </si>
+  <si>
+    <t>Finalização do pedido</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -188,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -210,6 +210,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -225,8 +228,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{B9EBD5B4-BE0E-4366-925D-CEB6654B3DD4}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FFFFBDBD"/>
@@ -534,18 +565,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,21 +594,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -604,10 +635,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C3">
@@ -626,26 +657,26 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
       <c r="C5">
         <v>3</v>
       </c>
@@ -653,7 +684,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
@@ -662,34 +693,34 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
@@ -697,20 +728,16 @@
       <c r="I7" s="6"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10" t="s">
-        <v>12</v>
-      </c>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="8"/>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -718,119 +745,103 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
       <c r="C13">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="7"/>
+      <c r="J13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="A3:A13"/>
     <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="B9:B13"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="E1:F1"/>
   </mergeCells>
